--- a/RPA_Project.xlsx
+++ b/RPA_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Documents\UiPath\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666ACB6D-11DF-45BE-9CB2-545640F2ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDD2E1A-193B-4467-B3F3-FF2B6488201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,10 +1130,10 @@
     <t>Import Duty</t>
   </si>
   <si>
-    <t>7/10/2025</t>
-  </si>
-  <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
   </si>
 </sst>
 </file>
@@ -7708,7 +7708,7 @@
   <dimension ref="A1:V983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7726,7 +7726,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>182</v>
@@ -7771,7 +7771,7 @@
         <v>191</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>195</v>
@@ -7800,7 +7800,7 @@
         <v>196</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>200</v>
@@ -7829,7 +7829,7 @@
         <v>201</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>205</v>
